--- a/lib/Halloween/Specification21_01_27HSI.xlsx
+++ b/lib/Halloween/Specification21_01_27HSI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All users\PoSheng\src\lib\Halloween\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA422AE-AC84-4C36-94F3-E8EE7EF442B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{734A1FB2-92D4-4BA7-83E9-DDA8259F7627}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="9345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Official Field" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="188">
   <si>
     <t>TagID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -737,6 +737,45 @@
   </si>
   <si>
     <t>1~4;1~4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11(SGL)</t>
+  </si>
+  <si>
+    <t>in sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in um</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSI: Real Y Dimension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSI: Real X Dimention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSI: VSS of iXon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSI: HSS of iXon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSI: Step Length</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,7 +824,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -812,12 +851,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -865,7 +898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,7 +923,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,6 +1071,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C6500"/>
       </font>
@@ -1215,13 +1261,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1547,9 +1586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1641,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3">
         <v>256</v>
       </c>
       <c r="B3" t="s">
@@ -1616,7 +1655,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4">
         <v>257</v>
       </c>
       <c r="B4" t="s">
@@ -1630,7 +1669,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5">
         <v>258</v>
       </c>
       <c r="B5" t="s">
@@ -1681,7 +1720,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8">
         <v>262</v>
       </c>
       <c r="B8" t="s">
@@ -2000,7 +2039,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25">
         <v>339</v>
       </c>
       <c r="B25" t="s">
@@ -2114,11 +2153,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2814,7 +2853,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2828,7 +2867,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2842,103 +2881,188 @@
         <v>108</v>
       </c>
     </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>187</v>
+      </c>
+      <c r="E72" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E73" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>185</v>
+      </c>
+      <c r="E75" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>186</v>
+      </c>
+      <c r="E76" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A54:A1048576 A23:A52 A9:A21 A1:A7">
-    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 C2:XFD4 C13:XFD13 A2:A5 A9:XFD11 E12:XFD12 B5:D5 D14:XFD14 A12:A15 C15:XFD15 A6:XFD6 A25:XFD26 E53:XFD53 A54:XFD57 F22:XFD23 A16:XFD17 A59:XFD61 A58 A23:A24 C24:XFD24 A27 C27:XFD27 A33 A28:XFD29 F58:XFD58 A19:XFD21 A18:D18 F18:XFD18 A62:A64 E64:XFD64 A65:XFD1048576 F62:XFD62 C63:XFD63 A7 C7:F7 A32:XFD32 A30:A31 C30:XFD31 F33:XFD33 A34:XFD52">
-    <cfRule type="containsText" dxfId="32" priority="22" operator="containsText" text="TBD">
+  <conditionalFormatting sqref="A1:XFD1 C2:XFD4 C13:XFD13 A2:A5 A9:XFD11 E12:XFD12 B5:D5 D14:XFD14 A12:A15 C15:XFD15 A6:XFD6 A25:XFD26 E53:XFD53 A54:XFD57 F22:XFD23 A16:XFD17 A59:XFD61 A58 A23:A24 C24:XFD24 A27 C27:XFD27 A33 A28:XFD29 F58:XFD58 A18:D18 F18:XFD18 A62:A64 E64:XFD64 F62:XFD62 C63:XFD63 A7 C7:F7 A32:XFD32 A30:A31 C30:XFD31 F33:XFD33 A34:XFD34 A37:XFD52 F35:XFD36 A19:XFD20 E21:XFD21 A65:XFD1048576">
+    <cfRule type="containsText" dxfId="33" priority="22" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="32" priority="21" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="31" priority="18" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="30" priority="19" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",B15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="27" priority="16" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="28" priority="16" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="25" priority="14" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="26" priority="14" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23">
-    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",B23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",B63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",B30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",B31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:C33">
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",B33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",E33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8 C8:D8 F8">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",A8)))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A34 A37:A52 A77:A1048576 A9:A20 A54:A75 A1:A7">
+    <cfRule type="duplicateValues" dxfId="14" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/lib/Halloween/Specification21_01_27HSI.xlsx
+++ b/lib/Halloween/Specification21_01_27HSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All users\PoSheng\src\lib\Halloween\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{734A1FB2-92D4-4BA7-83E9-DDA8259F7627}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95AD39C-974E-4A53-AB2F-17F46FA668A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="9345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="191">
   <si>
     <t>TagID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -776,6 +776,18 @@
   </si>
   <si>
     <t>HSI: Step Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS: bkg exist?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS: ref exist?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 for true, 0 for false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2153,11 +2165,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2964,6 +2976,40 @@
       </c>
       <c r="E76" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>189</v>
+      </c>
+      <c r="E78" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/lib/Halloween/Specification21_01_27HSI.xlsx
+++ b/lib/Halloween/Specification21_01_27HSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All users\PoSheng\src\lib\Halloween\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95AD39C-974E-4A53-AB2F-17F46FA668A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EE0F96-60EF-4ACC-9925-23DDCFCFC77F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="9345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="197">
   <si>
     <t>TagID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -779,15 +779,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HIS: bkg exist?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIS: ref exist?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 for true, 0 for false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11(SGL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSI: bkg exist?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSI: ref exist?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(U8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSI: Gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSI: Gain type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 for conventional, 0 for EM gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unimplemented</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2165,11 +2189,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2865,7 +2889,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2879,7 +2903,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2893,7 +2917,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>70</v>
       </c>
@@ -2910,7 +2934,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>71</v>
       </c>
@@ -2927,7 +2951,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>72</v>
       </c>
@@ -2944,7 +2968,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>73</v>
       </c>
@@ -2961,7 +2985,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>74</v>
       </c>
@@ -2978,7 +3002,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2989,13 +3013,13 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
+        <v>190</v>
+      </c>
+      <c r="E77" t="s">
         <v>188</v>
       </c>
-      <c r="E77" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3006,10 +3030,44 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
+        <v>191</v>
+      </c>
+      <c r="E78" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
         <v>189</v>
       </c>
-      <c r="E78" t="s">
-        <v>190</v>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>194</v>
+      </c>
+      <c r="E80" t="s">
+        <v>195</v>
+      </c>
+      <c r="F80" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
